--- a/prediction_result/combination(all_bands)/prediction_result_B1_B4_B5_B7_B8_B11_B12.xlsx
+++ b/prediction_result/combination(all_bands)/prediction_result_B1_B4_B5_B7_B8_B11_B12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B63"/>
+  <dimension ref="A1:B114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,31 +448,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -496,12 +496,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
@@ -520,48 +520,48 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
     </row>
@@ -592,19 +592,19 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -621,31 +621,31 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
     </row>
@@ -688,24 +688,24 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
@@ -724,12 +724,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
@@ -748,12 +748,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
@@ -772,12 +772,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -808,36 +808,36 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
@@ -856,12 +856,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
     </row>
@@ -904,24 +904,24 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
     </row>
@@ -940,19 +940,19 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -964,12 +964,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
@@ -988,12 +988,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1036,48 +1036,48 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
     </row>
@@ -1096,12 +1096,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
@@ -1113,7 +1113,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
     </row>
@@ -1132,12 +1132,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
@@ -1168,24 +1168,636 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>bangunan</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>bangunan</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>area_hijau</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>area_hijau</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>area_hijau</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>bangunan</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>bangunan</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>area_hijau</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>bangunan</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>bangunan</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>bangunan</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>bangunan</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>bangunan</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>bangunan</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>area_hijau</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>area_hijau</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>area_hijau</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>area_hijau</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>area_hijau</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>bangunan</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>bangunan</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>area_hijau</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>area_hijau</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>bangunan</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>bangunan</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>bangunan</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>bangunan</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>bangunan</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>bangunan</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>bangunan</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>bangunan</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>area_hijau</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>area_hijau</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>bangunan</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>bangunan</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>area_hijau</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>area_hijau</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>area_hijau</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>bangunan</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>bangunan</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>area_hijau</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>area_hijau</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>area_hijau</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>area_hijau</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>area_hijau</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>bangunan</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>bangunan</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>bangunan</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>bangunan</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>bangunan</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>bangunan</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>bangunan</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>bangunan</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>area_hijau</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>area_hijau</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>area_hijau</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>area_hijau</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>bangunan</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>bangunan</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>bangunan</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>bangunan</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>area_hijau</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>bangunan</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>bangunan</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>bangunan</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>bangunan</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>bangunan</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>bangunan</t>
         </is>
       </c>
     </row>

--- a/prediction_result/combination(all_bands)/prediction_result_B1_B4_B5_B7_B8_B11_B12.xlsx
+++ b/prediction_result/combination(all_bands)/prediction_result_B1_B4_B5_B7_B8_B11_B12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B114"/>
+  <dimension ref="A1:B116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,24 +448,24 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
@@ -477,19 +477,19 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
@@ -501,19 +501,19 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
@@ -532,12 +532,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
@@ -556,24 +556,24 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
     </row>
@@ -585,38 +585,38 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -628,12 +628,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
     </row>
@@ -652,24 +652,24 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
@@ -688,36 +688,36 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
@@ -729,19 +729,19 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
     </row>
@@ -760,24 +760,24 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
@@ -813,43 +813,43 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
     </row>
@@ -868,12 +868,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
@@ -904,12 +904,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
@@ -928,24 +928,24 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
     </row>
@@ -964,12 +964,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
     </row>
@@ -988,12 +988,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
@@ -1012,12 +1012,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
     </row>
@@ -1029,43 +1029,43 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
     </row>
@@ -1120,31 +1120,31 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1156,12 +1156,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
@@ -1192,12 +1192,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
@@ -1216,12 +1216,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
@@ -1252,12 +1252,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
@@ -1269,67 +1269,67 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
@@ -1341,55 +1341,55 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
@@ -1408,60 +1408,60 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
@@ -1480,24 +1480,24 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
@@ -1509,14 +1509,14 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -1528,24 +1528,24 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
@@ -1557,19 +1557,19 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
@@ -1588,24 +1588,24 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>area_hijau</t>
+          <t>air</t>
         </is>
       </c>
     </row>
@@ -1624,24 +1624,24 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
@@ -1660,24 +1660,24 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>bangunan</t>
         </is>
       </c>
     </row>
@@ -1720,31 +1720,31 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>area_hijau</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>area_hijau</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -1792,12 +1792,36 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>bangunan</t>
+          <t>air</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>air</t>
         </is>
       </c>
     </row>
